--- a/吉田学園情報ビジネス専門学校_鈴木聖大/06_鈴木聖大_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_鈴木聖大/06_鈴木聖大_履歴書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP057\Desktop\other\就活関連\自己分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP057\Desktop\other\就活関連\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14388" yWindow="-12" windowWidth="14436" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書(表)" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'履歴書(裏)'!$B$2:$L$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>年</t>
   </si>
@@ -311,19 +310,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>プランニング、プログラミング</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>キャラバン、ハッカソン</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ボウリング、エレキベース</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>　(希望職種)ゲームプログラマ</t>
+    <t>　(希望職種)ゲームプランナー</t>
     <rPh sb="2" eb="4">
       <t>キボウ</t>
     </rPh>
@@ -333,100 +320,157 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私はゲームの楽しさや面白さを提供したいと考え、貴社を志望しました。私は小さい頃からナ</t>
+    <t>好奇心旺盛</t>
+    <rPh sb="0" eb="3">
+      <t>コウキシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ルービックキューブ、ボウリング、エレキベース</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>採用していただいたあかつきには、これまでの経験を活かして誰よりも多くのアイデアを発信</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>合ったり、短時間で企画書を作成して講評会を行うなどの活動を始めました。またその活動以</t>
+    <rPh sb="29" eb="30">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>し、プログラマに寄り添った実現可能な仕様を考案していきたいです。</t>
+    <rPh sb="13" eb="17">
+      <t>ジツゲンカノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>外にも、学校の授業でC言語やC++を学んでおり、DirectXを用いて様々なジャンルのゲーム</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は好奇心が強く、様々なジャンルのゲームをプレイしたり、年齢性別関係なく人と関わるこ</t>
     <rPh sb="0" eb="1">
       <t>ワタシ</t>
     </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウキシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ネンレイセイベツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>の製作経験を積んできたため、企画したゲームを実際に動かして表現する能力があります。</t>
     <rPh sb="6" eb="7">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オモシロ</t>
+      <t>ツ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>コロ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ゾトキが好きで、貴社のレイトンシリーズをプレイしていました。謎を解く楽しさはもちろん、イギ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>明に覚えています。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>リスを舞台にしたお洒落な世界観が好きで、とても楽しくプレイさせて頂いていたことを今も鮮</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私はゲームプログラマを志望しているのですが、採用して頂けた際には自分のスキルを活か</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>し、UI方面で活躍していきたいと考えております。また、在学中はクラスの就職委員やオープ</t>
-    <rPh sb="27" eb="30">
-      <t>ザイガクチュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュウショク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>イイン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ンキャンパスのスタッフを任されたり、自主的にボランティアに参加していたことを活かし、積</t>
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>とが好きなので、この長所を活かせる仕事がしたいと思い、ゲームプランナーを志しました。</t>
+    <rPh sb="17" eb="19">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ココロザ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>キャラバン、ハッカソン、発想力やコミュニケーション力を鍛えるコミュニティ</t>
+    <rPh sb="12" eb="15">
+      <t>ハッソウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム開発</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学校では、オープンキャンパスのスタッフやクラスの就職委員として人前で話す機会を数多く</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>経験してきましたので、コミュニケーション能力には自信があります。しかし、企画立案の経験</t>
+    <rPh sb="20" eb="22">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>リツアン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>が少なかったので、そこを補うために、先生や生徒達を誘い、毎日欠かさず企画の案を出し</t>
+    <rPh sb="1" eb="2">
+      <t>スク</t>
+    </rPh>
     <rPh sb="12" eb="13">
-      <t>マカ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ジシュテキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>セキ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>極的にコミュニケーションを図っていきたいと考えております。</t>
-    <rPh sb="0" eb="1">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カンガ</t>
+      <t>オギナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>マイニチ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1337,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1741,6 +1785,34 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1800,6 +1872,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1818,42 +1902,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2227,7 +2275,7 @@
   <dimension ref="B1:Q35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2952,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:X31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2978,122 +3026,122 @@
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="118"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="127"/>
     </row>
     <row r="4" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="115"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="115"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="115"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="115"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="122"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="115"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="122"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="115"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="122"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="23"/>
@@ -3109,7 +3157,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="94"/>
@@ -3121,127 +3169,129 @@
       <c r="I11" s="94"/>
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
-      <c r="L11" s="109"/>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
+      <c r="B13" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="B15" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="110" t="s">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+    </row>
+    <row r="17" spans="2:24" ht="32.1" customHeight="1">
+      <c r="B17" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="122"/>
+    </row>
+    <row r="18" spans="2:24" ht="16.5" customHeight="1">
+      <c r="B18" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-    </row>
-    <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="121" t="s">
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
+    </row>
+    <row r="19" spans="2:24" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B19" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
-    </row>
-    <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="130"/>
+    </row>
+    <row r="20" spans="2:24" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3254,189 +3304,295 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="124" t="s">
+    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B21" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="138"/>
+    </row>
+    <row r="22" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B22" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="133"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+    </row>
+    <row r="23" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B23" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+    </row>
+    <row r="24" spans="2:24" s="24" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+    </row>
+    <row r="25" spans="2:24" s="24" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+    </row>
+    <row r="26" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B26" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+    </row>
+    <row r="27" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B27" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+    </row>
+    <row r="28" spans="2:24" s="24" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+    </row>
+    <row r="29" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B29" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="108"/>
+    </row>
+    <row r="30" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B30" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
-    </row>
-    <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
-    </row>
-    <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="132" t="s">
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+    </row>
+    <row r="31" spans="2:24" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="134"/>
-    </row>
-    <row r="24" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="134"/>
-    </row>
-    <row r="25" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="134"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="134"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="134"/>
-    </row>
-    <row r="28" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="134"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="134"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="132"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="134"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="137"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="114"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B31:L31"/>
+  <mergeCells count="39">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:L21"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L13"/>
@@ -3448,6 +3604,24 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="N30:X30"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
